--- a/FP Interface Card.xlsx
+++ b/FP Interface Card.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caden\Documents\GitHub\foras-promineo-payload-interface-board-hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\foras-promineo-payload-interface-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D5C74D-7817-421F-B43C-01141EE20CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FP Interface Card" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
   <si>
     <t>Item</t>
   </si>
@@ -40,21 +39,9 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0402_1005Metric</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
@@ -73,9 +60,6 @@
     <t>47uF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
     <t>GRT31CR61A476KE13L</t>
   </si>
   <si>
@@ -97,18 +81,12 @@
     <t>TPSMF4L6.0A</t>
   </si>
   <si>
-    <t>Diode_SMD:D_SOD-123F</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
     <t>RED</t>
   </si>
   <si>
-    <t>SLI-Backplane-Blank-Card-KiCad:APA2107x</t>
-  </si>
-  <si>
     <t>APA2107LSECK/J3-PRV</t>
   </si>
   <si>
@@ -145,81 +123,48 @@
     <t>S1G</t>
   </si>
   <si>
-    <t>Diode_SMD:D_SMA</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
     <t>T1M-10-F-SV-L</t>
   </si>
   <si>
-    <t>payload-interface-board:SAMTEC_T1M-10-F-SV-L</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
     <t>ZX62-AB-5PA(31)</t>
   </si>
   <si>
-    <t>SLI-Backplane-Blank-Card-KiCad:ZX62-AB-5PA(31)</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
     <t>T1M-6-F-SV-L</t>
   </si>
   <si>
-    <t>payload-interface-board:SAMTEC_T1M-06-F-SV-L</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
     <t>BC847BM3T5G</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-723</t>
-  </si>
-  <si>
     <t>BSS138DWQ-7</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-363_SC-70-6</t>
-  </si>
-  <si>
-    <t>MOSFET BSS Family</t>
-  </si>
-  <si>
     <t>MMDT5551-7-F</t>
   </si>
   <si>
     <t>BSS138</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-23</t>
-  </si>
-  <si>
     <t>MMBT4401-7-F</t>
   </si>
   <si>
     <t>IRF7404TRPBF</t>
   </si>
   <si>
-    <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
     <t>1.5k</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0402_1005Metric</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
@@ -235,9 +180,6 @@
     <t>200mR</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_2012Metric</t>
-  </si>
-  <si>
     <t>RL1220S-R20-F</t>
   </si>
   <si>
@@ -268,18 +210,12 @@
     <t>SW_Push_SPST</t>
   </si>
   <si>
-    <t>SLI-Backplane-Blank-Card-KiCad:EVQP7C01P</t>
-  </si>
-  <si>
     <t>EVQP7C01P</t>
   </si>
   <si>
     <t>DRV8838DSGT</t>
   </si>
   <si>
-    <t>Package_SON:WSON-8-1EP_2x2mm_P0.5mm_EP0.9x1.6mm</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -292,54 +228,33 @@
     <t>IAM-20380</t>
   </si>
   <si>
-    <t>payload-interface-board:IAM-20380</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
     <t>PCA9543APW,118</t>
   </si>
   <si>
-    <t>Package_SO:TSSOP-14_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
     <t>MMC5983MA</t>
   </si>
   <si>
-    <t>payload-interface-board:MMC5983MA</t>
-  </si>
-  <si>
     <t>MXC6655XA</t>
   </si>
   <si>
-    <t>payload-interface-board:MXC6655XA</t>
-  </si>
-  <si>
     <t>U10</t>
   </si>
   <si>
     <t>MAX7311AAG+</t>
   </si>
   <si>
-    <t>Package_SO:SSOP-24_5.3x8.2mm_P0.65mm</t>
-  </si>
-  <si>
     <t>U11</t>
   </si>
   <si>
     <t>MCP47FVB24-E/MQ</t>
   </si>
   <si>
-    <t>payload-interface-board:MCP47FVB24EMQ</t>
-  </si>
-  <si>
     <t>ALM2402QPWPRQ1</t>
   </si>
   <si>
-    <t>Package_SO:HTSSOP-14-1EP_4.4x5mm_P0.65mm_EP3.4x5mm_Mask3x3.1mm</t>
-  </si>
-  <si>
     <t>OPA340MDBVTEP</t>
   </si>
   <si>
@@ -355,27 +270,18 @@
     <t>INA240A3EDRQ1</t>
   </si>
   <si>
-    <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
     <t>U24</t>
   </si>
   <si>
     <t>RockBlock_9603</t>
   </si>
   <si>
-    <t>payload-interface-board:RockBlock_9603</t>
-  </si>
-  <si>
     <t>U25</t>
   </si>
   <si>
     <t>Pico</t>
   </si>
   <si>
-    <t>RPi_Pico:RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
     <t>CG0402MLU-05G</t>
   </si>
   <si>
@@ -487,9 +393,6 @@
     <t>R95, R96, R97, R98, R57, R58, R87, R88</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>RMCF0603FT100R</t>
   </si>
   <si>
@@ -517,9 +420,6 @@
     <t>RMCF0603ZT0R00</t>
   </si>
   <si>
-    <t>sub NCV2003SN2T1G</t>
-  </si>
-  <si>
     <t>CGA3E1X7R1V105K080AE</t>
   </si>
   <si>
@@ -553,16 +453,100 @@
     <t>CGA4J1X7R1E475K125AC</t>
   </si>
   <si>
-    <t>change to 0805  in next rev</t>
-  </si>
-  <si>
     <t>CL10B104KB8WPNC</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>SOD-123F</t>
+  </si>
+  <si>
+    <t>Sub (if applicable)</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>APA2107x</t>
+  </si>
+  <si>
+    <t>SAMTEC_T1M-10-F-SV-L</t>
+  </si>
+  <si>
+    <t>SAMTEC_T1M-06-F-SV-L</t>
+  </si>
+  <si>
+    <t>SOT-723</t>
+  </si>
+  <si>
+    <t>SC-70-6</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>WSON-8-1EP_2x2mm_P0.5mm_EP0.9x1.6mm</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>TSSOP-14_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RPi_Pico_SMD</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>SSOP-24_5.3x8.2mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>MCP47FVB24EMQ</t>
+  </si>
+  <si>
+    <t>HTSSOP-14-1EP_4.4x5mm_P0.65mm_EP3.4x5mm</t>
+  </si>
+  <si>
+    <t>GCM1555C1H102JA16J</t>
+  </si>
+  <si>
+    <t>RMCF0402FT10K0</t>
+  </si>
+  <si>
+    <t>RMCF0402FT1M00</t>
+  </si>
+  <si>
+    <t>RMCF0402FT1K50</t>
+  </si>
+  <si>
+    <t>NCV2003SN2T1G</t>
+  </si>
+  <si>
+    <t>GCM155R71H104KE02J</t>
+  </si>
+  <si>
+    <t>GRT188R61A106ME13D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,12 +861,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1046,12 +1024,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1406,11 +1387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,10 +1401,11 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="42.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1440,13 +1422,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1454,19 +1439,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="E2" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1474,19 +1459,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1494,19 +1479,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="E4" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1514,19 +1499,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1534,19 +1519,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1554,19 +1540,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1574,19 +1560,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1594,19 +1580,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1614,19 +1600,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1634,19 +1620,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1654,19 +1640,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1674,19 +1660,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1694,19 +1680,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1714,19 +1700,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1734,19 +1720,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1754,19 +1740,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21</v>
       </c>
@@ -1774,19 +1760,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1794,19 +1780,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -1814,19 +1800,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -1834,19 +1820,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -1854,19 +1840,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>27</v>
       </c>
@@ -1874,19 +1860,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
@@ -1894,19 +1880,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1914,22 +1900,19 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -1937,19 +1920,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -1957,19 +1940,19 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -1977,19 +1960,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34</v>
       </c>
@@ -1997,19 +1980,19 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2017,19 +2000,19 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30">
         <v>100</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>36</v>
       </c>
@@ -2037,19 +2020,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>37</v>
       </c>
@@ -2057,16 +2040,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,16 +2060,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2097,16 +2080,16 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2117,16 +2100,16 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,16 +2120,16 @@
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D36">
         <v>51</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>63</v>
+      <c r="E36" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,16 +2140,16 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2177,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2197,16 +2180,16 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D39">
         <v>33</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>63</v>
+      <c r="E39" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,16 +2200,16 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D40">
         <v>680</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>63</v>
+      <c r="E40" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,16 +2220,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,16 +2240,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" t="s">
-        <v>155</v>
+        <v>58</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,16 +2257,16 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,16 +2277,16 @@
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>63</v>
+      <c r="E44" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,16 +2297,16 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,19 +2317,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57</v>
       </c>
@@ -2357,16 +2337,16 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,19 +2357,19 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59</v>
       </c>
@@ -2397,19 +2377,19 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>60</v>
       </c>
@@ -2417,19 +2397,19 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>61</v>
       </c>
@@ -2437,19 +2417,19 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>62</v>
       </c>
@@ -2457,19 +2437,19 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>63</v>
       </c>
@@ -2477,19 +2457,19 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>64</v>
       </c>
@@ -2497,19 +2477,19 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>65</v>
       </c>
@@ -2517,19 +2497,19 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>66</v>
       </c>
@@ -2537,22 +2517,23 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>67</v>
       </c>
@@ -2560,19 +2541,19 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>68</v>
       </c>
@@ -2580,19 +2561,19 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>69</v>
       </c>
@@ -2600,16 +2581,16 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>70</v>
       </c>
@@ -2617,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>71</v>
       </c>
@@ -2634,16 +2615,16 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/FP Interface Card.xlsx
+++ b/FP Interface Card.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="175">
   <si>
     <t>Item</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>GRT188R61A106ME13D</t>
+  </si>
+  <si>
+    <t>T1M-06-F-SV-L</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1849,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>154</v>
@@ -2628,6 +2634,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="17" scale="88" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FP Interface Card.xlsx
+++ b/FP Interface Card.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\foras-promineo-payload-interface-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="FP Interface Card" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="208">
   <si>
     <t>Item</t>
   </si>
@@ -33,15 +33,36 @@
     <t>Value</t>
   </si>
   <si>
+    <t>LibPart</t>
+  </si>
+  <si>
     <t>Footprint</t>
   </si>
   <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
     <t>0.1uF</t>
   </si>
   <si>
+    <t>Device:C</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
     <t>4.7uF</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
@@ -60,6 +81,9 @@
     <t>47uF</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
     <t>GRT31CR61A476KE13L</t>
   </si>
   <si>
@@ -78,15 +102,33 @@
     <t>560pF</t>
   </si>
   <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
     <t>TPSMF4L6.0A</t>
   </si>
   <si>
+    <t>Device:D_TVS</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123F</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
     <t>RED</t>
   </si>
   <si>
+    <t>Device:D</t>
+  </si>
+  <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:APA2107x</t>
+  </si>
+  <si>
     <t>APA2107LSECK/J3-PRV</t>
   </si>
   <si>
@@ -123,48 +165,126 @@
     <t>S1G</t>
   </si>
   <si>
+    <t>Diode_SMD:D_SMA</t>
+  </si>
+  <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:125mil_hole</t>
+  </si>
+  <si>
+    <t>Mechanical:MountingHole_Pad</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
     <t>T1M-10-F-SV-L</t>
   </si>
   <si>
+    <t>Connector_Generic:Conn_01x10</t>
+  </si>
+  <si>
+    <t>payload-interface-board:SAMTEC_T1M-10-F-SV-L</t>
+  </si>
+  <si>
     <t>J3</t>
   </si>
   <si>
     <t>ZX62-AB-5PA(31)</t>
   </si>
   <si>
+    <t>Connector:USB_B_Micro</t>
+  </si>
+  <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:ZX62-AB-5PA(31)</t>
+  </si>
+  <si>
     <t>J4</t>
   </si>
   <si>
     <t>T1M-6-F-SV-L</t>
   </si>
   <si>
+    <t>Connector_Generic:Conn_01x06</t>
+  </si>
+  <si>
+    <t>payload-interface-board:SAMTEC_T1M-06-F-SV-L</t>
+  </si>
+  <si>
     <t>J5</t>
   </si>
   <si>
+    <t>Connector_Generic:Conn_02x05_Odd_Even</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Card Edge for HSEC8-160-01-S-DV-A-K-TR</t>
+  </si>
+  <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:Conn_02x60_Top_Bottom</t>
+  </si>
+  <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:HSEC8-160-CARD-EDGE</t>
+  </si>
+  <si>
     <t>BC847BM3T5G</t>
   </si>
   <si>
+    <t>Device:Q_NPN_BEC</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-723</t>
+  </si>
+  <si>
     <t>BSS138DWQ-7</t>
   </si>
   <si>
+    <t>mainboard:BSS138DWQ-7</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-363_SC-70-6</t>
+  </si>
+  <si>
     <t>MMDT5551-7-F</t>
   </si>
   <si>
+    <t>mainboard-rescue:MBT2222ADW1T1-Transistor_BJT-mainboard-rescue</t>
+  </si>
+  <si>
     <t>BSS138</t>
   </si>
   <si>
+    <t>Device:Q_NMOS_GSD</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
     <t>MMBT4401-7-F</t>
   </si>
   <si>
     <t>IRF7404TRPBF</t>
   </si>
   <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:IRF7404TRPBF</t>
+  </si>
+  <si>
+    <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Device:R_US</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
     <t>1.5k</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
     <t>R5</t>
   </si>
   <si>
@@ -180,6 +300,9 @@
     <t>200mR</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
     <t>RL1220S-R20-F</t>
   </si>
   <si>
@@ -201,108 +324,237 @@
     <t>3.3k</t>
   </si>
   <si>
+    <t>R102</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
     <t>MAX5490GC01000+T</t>
   </si>
   <si>
+    <t>FP-Interface-Card:MAX5490GC01000+T</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>SW_Push_SPST</t>
   </si>
   <si>
+    <t>Switch:SW_Push</t>
+  </si>
+  <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:EVQP7C01P</t>
+  </si>
+  <si>
     <t>EVQP7C01P</t>
   </si>
   <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>Connector:TestPoint</t>
+  </si>
+  <si>
+    <t>TestPoint:TestPoint_Pad_D1.0mm</t>
+  </si>
+  <si>
     <t>DRV8838DSGT</t>
   </si>
   <si>
+    <t>magnetotorquer-test-board:DRV8838DSGT</t>
+  </si>
+  <si>
+    <t>Package_SON:WSON-8-1EP_2x2mm_P0.5mm_EP0.9x1.6mm</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
     <t>AP2161W</t>
   </si>
   <si>
+    <t>Power_Management:AP2161W</t>
+  </si>
+  <si>
     <t>Package_TO_SOT_SMD:SOT-23-5</t>
   </si>
   <si>
     <t>IAM-20380</t>
   </si>
   <si>
+    <t>mainboard_SLI:IAM-20380</t>
+  </si>
+  <si>
+    <t>payload-interface-board:IAM-20380</t>
+  </si>
+  <si>
     <t>U5</t>
   </si>
   <si>
     <t>PCA9543APW,118</t>
   </si>
   <si>
+    <t>mainboard_SLI:PCA9543APW,118</t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-14_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
     <t>MMC5983MA</t>
   </si>
   <si>
+    <t>mainboard_SLI:MMC5983MA</t>
+  </si>
+  <si>
+    <t>payload-interface-board:MMC5983MA</t>
+  </si>
+  <si>
     <t>MXC6655XA</t>
   </si>
   <si>
+    <t>mainboard_SLI:MXC6655XA</t>
+  </si>
+  <si>
+    <t>payload-interface-board:MXC6655XA</t>
+  </si>
+  <si>
     <t>U10</t>
   </si>
   <si>
     <t>MAX7311AAG+</t>
   </si>
   <si>
+    <t>FP-Interface-Card:MAX7311AAG+</t>
+  </si>
+  <si>
+    <t>Package_SO:SSOP-24_5.3x8.2mm_P0.65mm</t>
+  </si>
+  <si>
     <t>U11</t>
   </si>
   <si>
     <t>MCP47FVB24-E/MQ</t>
   </si>
   <si>
+    <t>FP-Interface-Card:MCP47FVB24-E{slash}MQ</t>
+  </si>
+  <si>
+    <t>payload-interface-board:MCP47FVB24EMQ</t>
+  </si>
+  <si>
     <t>ALM2402QPWPRQ1</t>
   </si>
   <si>
+    <t>magnetotorquer-test-board:ALM2402QPWPRQ1</t>
+  </si>
+  <si>
+    <t>Package_SO:HTSSOP-14-1EP_4.4x5mm_P0.65mm_EP3.4x5mm_Mask3x3.1mm</t>
+  </si>
+  <si>
     <t>OPA340MDBVTEP</t>
   </si>
   <si>
+    <t>Amplifier_Operational:OPA340NA</t>
+  </si>
+  <si>
     <t>U14</t>
   </si>
   <si>
     <t>AD7091R-5BCPZ-RL7</t>
   </si>
   <si>
+    <t>FP-Interface-Card:AD7091R-5BCPZ-RL7</t>
+  </si>
+  <si>
     <t>Package_DFN_QFN:QFN-20-1EP_4x4mm_P0.5mm_EP2.5x2.5mm</t>
   </si>
   <si>
     <t>INA240A3EDRQ1</t>
   </si>
   <si>
+    <t>FP-Interface-Card:INA240AxxD</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
     <t>U24</t>
   </si>
   <si>
     <t>RockBlock_9603</t>
   </si>
   <si>
+    <t>FP-Interface-Card:RockBlock_9603</t>
+  </si>
+  <si>
+    <t>payload-interface-board:RockBlock_9603</t>
+  </si>
+  <si>
     <t>U25</t>
   </si>
   <si>
     <t>Pico</t>
   </si>
   <si>
+    <t>RPi_Pico:Pico</t>
+  </si>
+  <si>
+    <t>RPi_Pico:RPi_Pico_SMD_TH</t>
+  </si>
+  <si>
+    <t>U26</t>
+  </si>
+  <si>
+    <t>LTC4307</t>
+  </si>
+  <si>
+    <t>mainboard_SLI:LTC4307</t>
+  </si>
+  <si>
+    <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
+  </si>
+  <si>
     <t>CG0402MLU-05G</t>
   </si>
   <si>
+    <t>Device:Varistor</t>
+  </si>
+  <si>
+    <t>C1, C2, C16, C17, C18, C29, C31, C32, C33, C38, C39, C40, C41, C43, C44, C49, C50, C53, C55, C56, C57, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69</t>
+  </si>
+  <si>
     <t>C3, C51, C58</t>
   </si>
   <si>
     <t>C4, C5, C6, C7, C8, C11, C12</t>
   </si>
   <si>
+    <t>C14, C15, C45, C46</t>
+  </si>
+  <si>
     <t>C19, C20, C47, C48, C70, C71</t>
   </si>
   <si>
     <t>C21, C22</t>
   </si>
   <si>
+    <t>C23, C24, C27, C28, C52, C54, C59, C72</t>
+  </si>
+  <si>
+    <t>C25, C26, C30, C35, C36</t>
+  </si>
+  <si>
     <t>C34, C37, C42</t>
   </si>
   <si>
     <t>D1, D6, D7</t>
   </si>
   <si>
+    <t>H1, H2, H3, H4</t>
+  </si>
+  <si>
     <t>Q1, Q2, Q3, Q4</t>
   </si>
   <si>
@@ -330,6 +582,12 @@
     <t>R6, R10, R13</t>
   </si>
   <si>
+    <t>R16, R17, R18, R20, R22, R25, R35, R39, R40, R42, R44, R47, R52, R77, R82, R90, R93, R94, R99, R103, R104, R105, R111, R112</t>
+  </si>
+  <si>
+    <t>R19, R21, R23, R24, R49, R50, R54, R55, R65, R67, R68, R70, R71, R73, R74, R76, R79, R80, R84, R85, R89, R91, R100, R106, R108, R110, R114, R116</t>
+  </si>
+  <si>
     <t>R26, R27, R28, R29, R45, R46</t>
   </si>
   <si>
@@ -345,15 +603,24 @@
     <t>R51, R56, R81, R86</t>
   </si>
   <si>
+    <t>R57, R58, R87, R88, R95, R96, R97, R98</t>
+  </si>
+  <si>
     <t>R66, R69, R72, R75, R109, R115</t>
   </si>
   <si>
     <t>R92, R101, R107</t>
   </si>
   <si>
+    <t>R113, R117</t>
+  </si>
+  <si>
     <t>RN1, RN2, RN3</t>
   </si>
   <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24, TP25, TP26, TP27, TP28, TP29, TP30, TP31, TP32, TP33, TP34, TP35, TP38, TP39</t>
+  </si>
+  <si>
     <t>U1, U16, U19</t>
   </si>
   <si>
@@ -376,174 +643,6 @@
   </si>
   <si>
     <t>Z1, Z2</t>
-  </si>
-  <si>
-    <t>P/N</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>R25, R35, R39, R40, R42, R44, R90, R93, R94, R99, R105, R25, R35, R39, R40, R42, R44, R90, R93, R94, R99, R105</t>
-  </si>
-  <si>
-    <t>R19, R21, R23, R24, R49, R50, R54, R55, R79, R80, R84, R85, R65, R67, R68, R70, R71, R73, R74, R76, R89, R91, R100, R106, R108, R110, R114, R116</t>
-  </si>
-  <si>
-    <t>R95, R96, R97, R98, R57, R58, R87, R88</t>
-  </si>
-  <si>
-    <t>RMCF0603FT100R</t>
-  </si>
-  <si>
-    <t>RMCF0603FT100K</t>
-  </si>
-  <si>
-    <t>RMCF0603FT10K0</t>
-  </si>
-  <si>
-    <t>RMCF0603FT51R0</t>
-  </si>
-  <si>
-    <t>RMCF0603FT33R0</t>
-  </si>
-  <si>
-    <t>RMCF0603FT680R</t>
-  </si>
-  <si>
-    <t>RMCF0603FT200K</t>
-  </si>
-  <si>
-    <t>RC0603FR-073K3L</t>
-  </si>
-  <si>
-    <t>RMCF0603ZT0R00</t>
-  </si>
-  <si>
-    <t>CGA3E1X7R1V105K080AE</t>
-  </si>
-  <si>
-    <t>CGA3E2C0G1H561J080AA</t>
-  </si>
-  <si>
-    <t>C25, C26, C30, C35, C36</t>
-  </si>
-  <si>
-    <t>CGA4J1X7S1E106K125AE</t>
-  </si>
-  <si>
-    <t>C52, C54, C59, C72, C23, C24, C27, C28</t>
-  </si>
-  <si>
-    <t>C45, C46, C14, C15</t>
-  </si>
-  <si>
-    <t>CGA4J3X7R1C225K125AB</t>
-  </si>
-  <si>
-    <t>CGA3E3X7R1E474K080AB</t>
-  </si>
-  <si>
-    <t>CGA3E2X7R1H103K080AE</t>
-  </si>
-  <si>
-    <t>C1, C2, C29, C31, C32, C33, C38, C39, C40, C41, C43, C44, C49, C50, C53, C55, C56, C57, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69, C16, C17, C18</t>
-  </si>
-  <si>
-    <t>CGA4J1X7R1E475K125AC</t>
-  </si>
-  <si>
-    <t>CL10B104KB8WPNC</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>SOD-123F</t>
-  </si>
-  <si>
-    <t>Sub (if applicable)</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>APA2107x</t>
-  </si>
-  <si>
-    <t>SAMTEC_T1M-10-F-SV-L</t>
-  </si>
-  <si>
-    <t>SAMTEC_T1M-06-F-SV-L</t>
-  </si>
-  <si>
-    <t>SOT-723</t>
-  </si>
-  <si>
-    <t>SC-70-6</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>WSON-8-1EP_2x2mm_P0.5mm_EP0.9x1.6mm</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>TSSOP-14_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>RPi_Pico_SMD</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>SSOP-24_5.3x8.2mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>MCP47FVB24EMQ</t>
-  </si>
-  <si>
-    <t>HTSSOP-14-1EP_4.4x5mm_P0.65mm_EP3.4x5mm</t>
-  </si>
-  <si>
-    <t>GCM1555C1H102JA16J</t>
-  </si>
-  <si>
-    <t>RMCF0402FT10K0</t>
-  </si>
-  <si>
-    <t>RMCF0402FT1M00</t>
-  </si>
-  <si>
-    <t>RMCF0402FT1K50</t>
-  </si>
-  <si>
-    <t>NCV2003SN2T1G</t>
-  </si>
-  <si>
-    <t>GCM155R71H104KE02J</t>
-  </si>
-  <si>
-    <t>GRT188R61A106ME13D</t>
-  </si>
-  <si>
-    <t>T1M-06-F-SV-L</t>
   </si>
 </sst>
 </file>
@@ -612,7 +711,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1005,37 +1104,30 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1111,7 +1203,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1123,7 +1215,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1140,9 +1232,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1170,31 +1262,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1222,23 +1297,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1391,1250 +1449,1579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
+      <c r="C3" t="s">
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
+      <c r="C4" t="s">
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>135</v>
+      <c r="C10" t="s">
+        <v>172</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>152</v>
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>152</v>
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
+      <c r="C18" t="s">
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>152</v>
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
+      <c r="C19" t="s">
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>151</v>
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
+      <c r="C22" t="s">
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" t="s">
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>153</v>
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>97</v>
+      <c r="C27" t="s">
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>157</v>
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
+      <c r="C28" t="s">
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>157</v>
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B32">
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>38</v>
-      </c>
-      <c r="B33">
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>3</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36">
-        <v>51</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43">
+        <v>680</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39">
-        <v>33</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40">
-        <v>680</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>50</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>51</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>52</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44">
+      <c r="C44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>54</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>157</v>
+      <c r="E45" t="s">
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>111</v>
+      <c r="C47" t="s">
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>65</v>
+      <c r="C48" t="s">
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
         <v>112</v>
       </c>
-      <c r="D49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>60</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>61</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" t="s">
         <v>113</v>
       </c>
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>62</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E53" t="s">
         <v>114</v>
       </c>
-      <c r="D52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>75</v>
+      <c r="C54" t="s">
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>115</v>
+      <c r="C55" t="s">
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>166</v>
+        <v>120</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>203</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>83</v>
+      <c r="C59" t="s">
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>85</v>
+      <c r="C60" t="s">
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>118</v>
+      <c r="C61" t="s">
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
         <v>147</v>
       </c>
-      <c r="F61" t="s">
-        <v>87</v>
+      <c r="E63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="17" scale="88" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>